--- a/data/sharemnth.xlsx
+++ b/data/sharemnth.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D157"/>
+  <dimension ref="A1:E157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -378,6 +378,11 @@
           <t>share.hat</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reg.hat</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -392,6 +397,9 @@
       <c r="D2">
         <v>0.0003652655732366838</v>
       </c>
+      <c r="E2">
+        <v>2874853.175834656</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -406,6 +414,9 @@
       <c r="D3">
         <v>0.0003340397714737264</v>
       </c>
+      <c r="E3">
+        <v>2863227.965507507</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -420,6 +431,9 @@
       <c r="D4">
         <v>0.000303785189885275</v>
       </c>
+      <c r="E4">
+        <v>2851690.101799011</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -434,6 +448,9 @@
       <c r="D5">
         <v>0.0002745018283576428</v>
       </c>
+      <c r="E5">
+        <v>2840239.584671021</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -448,6 +465,9 @@
       <c r="D6">
         <v>0.0002461896870045166</v>
       </c>
+      <c r="E6">
+        <v>2828876.414154053</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -462,6 +482,9 @@
       <c r="D7">
         <v>0.0002188487658258964</v>
       </c>
+      <c r="E7">
+        <v>2817600.59022522</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -476,6 +499,9 @@
       <c r="D8">
         <v>0.0001924790648217822</v>
       </c>
+      <c r="E8">
+        <v>2806412.112892151</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -490,6 +516,9 @@
       <c r="D9">
         <v>0.0001670805839921741</v>
       </c>
+      <c r="E9">
+        <v>2795310.982170105</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -504,6 +533,9 @@
       <c r="D10">
         <v>0.0001426533234507588</v>
       </c>
+      <c r="E10">
+        <v>2784297.198028564</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -518,6 +550,9 @@
       <c r="D11">
         <v>0.0001191972828564758</v>
       </c>
+      <c r="E11">
+        <v>2773370.760498047</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -532,6 +567,9 @@
       <c r="D12">
         <v>9.671246255038568e-05</v>
       </c>
+      <c r="E12">
+        <v>2762531.669555664</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -546,6 +584,9 @@
       <c r="D13">
         <v>7.519886241880158e-05</v>
       </c>
+      <c r="E13">
+        <v>2751779.925224304</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -560,6 +601,9 @@
       <c r="D14">
         <v>5.46564824617235e-05</v>
       </c>
+      <c r="E14">
+        <v>2741115.527481079</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -574,6 +618,9 @@
       <c r="D15">
         <v>3.508532256546459e-05</v>
       </c>
+      <c r="E15">
+        <v>2730538.476333618</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -588,6 +635,9 @@
       <c r="D16">
         <v>1.648538295739854e-05</v>
       </c>
+      <c r="E16">
+        <v>2720048.771789551</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -602,6 +652,9 @@
       <c r="D17">
         <v>-1.143336476161494e-06</v>
       </c>
+      <c r="E17">
+        <v>2709646.413841248</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -616,6 +669,9 @@
       <c r="D18">
         <v>-1.780083584890235e-05</v>
       </c>
+      <c r="E18">
+        <v>2699331.402496338</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -630,6 +686,9 @@
       <c r="D19">
         <v>-3.348711504713719e-05</v>
       </c>
+      <c r="E19">
+        <v>2689103.737747192</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -644,6 +703,9 @@
       <c r="D20">
         <v>-4.820217395717918e-05</v>
       </c>
+      <c r="E20">
+        <v>2678963.419586182</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -658,6 +720,9 @@
       <c r="D21">
         <v>-6.194601269271516e-05</v>
       </c>
+      <c r="E21">
+        <v>2668910.448036194</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -672,6 +737,9 @@
       <c r="D22">
         <v>-7.471863136743195e-05</v>
       </c>
+      <c r="E22">
+        <v>2658944.823066711</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -686,6 +754,9 @@
       <c r="D23">
         <v>-8.652002998132957e-05</v>
       </c>
+      <c r="E23">
+        <v>2649066.544715881</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -700,6 +771,9 @@
       <c r="D24">
         <v>-9.73502081933475e-05</v>
       </c>
+      <c r="E24">
+        <v>2639275.612945557</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -714,6 +788,9 @@
       <c r="D25">
         <v>-0.0001072091664582331</v>
       </c>
+      <c r="E25">
+        <v>2629572.027786255</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -728,6 +805,9 @@
       <c r="D26">
         <v>-0.0001160969044349258</v>
       </c>
+      <c r="E26">
+        <v>2619955.789215088</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -742,6 +822,9 @@
       <c r="D27">
         <v>-0.0001240134222371125</v>
       </c>
+      <c r="E27">
+        <v>2610426.897247314</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -756,6 +839,9 @@
       <c r="D28">
         <v>-0.0001309587198647932</v>
       </c>
+      <c r="E28">
+        <v>2600985.351875305</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -770,6 +856,9 @@
       <c r="D29">
         <v>-0.0001369327973179679</v>
       </c>
+      <c r="E29">
+        <v>2591631.15309906</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -784,6 +873,9 @@
       <c r="D30">
         <v>-0.0001419356547103234</v>
       </c>
+      <c r="E30">
+        <v>2582364.300933838</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -798,6 +890,9 @@
       <c r="D31">
         <v>-0.0001459672918144861</v>
       </c>
+      <c r="E31">
+        <v>2573184.795341492</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -812,6 +907,9 @@
       <c r="D32">
         <v>-0.0001490277088578296</v>
       </c>
+      <c r="E32">
+        <v>2564092.636367798</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -826,6 +924,9 @@
       <c r="D33">
         <v>-0.000151116905726667</v>
       </c>
+      <c r="E33">
+        <v>2555087.823989868</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -840,6 +941,9 @@
       <c r="D34">
         <v>-0.0001522348823073116</v>
       </c>
+      <c r="E34">
+        <v>2546170.358200073</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -854,6 +958,9 @@
       <c r="D35">
         <v>-0.0001523816387134502</v>
       </c>
+      <c r="E35">
+        <v>2537340.239021301</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -868,6 +975,9 @@
       <c r="D36">
         <v>-0.0001515571750587696</v>
       </c>
+      <c r="E36">
+        <v>2528597.466423035</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -882,6 +992,9 @@
       <c r="D37">
         <v>-0.000149761491229583</v>
       </c>
+      <c r="E37">
+        <v>2519942.04044342</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -896,6 +1009,9 @@
       <c r="D38">
         <v>-0.0001469945873395773</v>
       </c>
+      <c r="E38">
+        <v>2511373.961044312</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -910,6 +1026,9 @@
       <c r="D39">
         <v>-0.0001432564630476918</v>
       </c>
+      <c r="E39">
+        <v>2502893.228256226</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -924,6 +1043,9 @@
       <c r="D40">
         <v>-0.0001385471186949871</v>
       </c>
+      <c r="E40">
+        <v>2494499.842056274</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -938,6 +1060,9 @@
       <c r="D41">
         <v>-0.0001328665542814633</v>
       </c>
+      <c r="E41">
+        <v>2486193.802452087</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -952,6 +1077,9 @@
       <c r="D42">
         <v>-0.0001262147695797466</v>
       </c>
+      <c r="E42">
+        <v>2477975.109458923</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -966,6 +1094,9 @@
       <c r="D43">
         <v>-0.0001185917647035239</v>
       </c>
+      <c r="E43">
+        <v>2469843.763046265</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -980,6 +1111,9 @@
       <c r="D44">
         <v>-0.0001099975397664821</v>
       </c>
+      <c r="E44">
+        <v>2461799.763244629</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -994,6 +1128,9 @@
       <c r="D45">
         <v>-0.0001004320944275605</v>
       </c>
+      <c r="E45">
+        <v>2453843.110031128</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -1008,6 +1145,9 @@
       <c r="D46">
         <v>-8.989542914150661e-05</v>
       </c>
+      <c r="E46">
+        <v>2445973.80342865</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -1022,6 +1162,9 @@
       <c r="D47">
         <v>-7.838754356725985e-05</v>
       </c>
+      <c r="E47">
+        <v>2438191.843414307</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -1036,6 +1179,9 @@
       <c r="D48">
         <v>-6.590843804588076e-05</v>
       </c>
+      <c r="E48">
+        <v>2430497.229995728</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -1050,6 +1196,9 @@
       <c r="D49">
         <v>-5.245811212262197e-05</v>
       </c>
+      <c r="E49">
+        <v>2422889.963180542</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -1064,6 +1213,9 @@
       <c r="D50">
         <v>-3.803656602485717e-05</v>
       </c>
+      <c r="E50">
+        <v>2415370.042961121</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -1078,6 +1230,9 @@
       <c r="D51">
         <v>-2.264379997996002e-05</v>
       </c>
+      <c r="E51">
+        <v>2407937.469345093</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -1092,6 +1247,9 @@
       <c r="D52">
         <v>-6.279813646870025e-06</v>
       </c>
+      <c r="E52">
+        <v>2400592.242324829</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -1106,6 +1264,9 @@
       <c r="D53">
         <v>1.105539297441283e-05</v>
       </c>
+      <c r="E53">
+        <v>2393334.3618927</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -1120,6 +1281,9 @@
       <c r="D54">
         <v>2.936181965651485e-05</v>
       </c>
+      <c r="E54">
+        <v>2386163.828071594</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -1134,6 +1298,9 @@
       <c r="D55">
         <v>4.863946662680974e-05</v>
       </c>
+      <c r="E55">
+        <v>2379080.640838623</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -1148,6 +1315,9 @@
       <c r="D56">
         <v>6.888833343055012e-05</v>
       </c>
+      <c r="E56">
+        <v>2372084.800209045</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -1162,6 +1332,9 @@
       <c r="D57">
         <v>9.010842063617019e-05</v>
       </c>
+      <c r="E57">
+        <v>2365176.306167603</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -1176,6 +1349,9 @@
       <c r="D58">
         <v>0.0001122997280162963</v>
       </c>
+      <c r="E58">
+        <v>2358355.158737183</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -1190,6 +1366,9 @@
       <c r="D59">
         <v>0.0001354622554572416</v>
       </c>
+      <c r="E59">
+        <v>2351621.357894897</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -1204,6 +1383,9 @@
       <c r="D60">
         <v>0.0001595960033000665</v>
       </c>
+      <c r="E60">
+        <v>2344974.903663635</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -1218,6 +1400,9 @@
       <c r="D61">
         <v>0.0001847009710900238</v>
       </c>
+      <c r="E61">
+        <v>2338415.796012878</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -1232,6 +1417,9 @@
       <c r="D62">
         <v>0.000210777159168174</v>
       </c>
+      <c r="E62">
+        <v>2331944.034965515</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -1246,6 +1434,9 @@
       <c r="D63">
         <v>0.0002378245671934565</v>
       </c>
+      <c r="E63">
+        <v>2325559.620529175</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -1260,6 +1451,9 @@
       <c r="D64">
         <v>0.0002658431956206186</v>
       </c>
+      <c r="E64">
+        <v>2319262.55267334</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -1274,6 +1468,9 @@
       <c r="D65">
         <v>0.0002948330442222868</v>
       </c>
+      <c r="E65">
+        <v>2313052.831420898</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -1288,6 +1485,9 @@
       <c r="D66">
         <v>0.0003247941127710874</v>
       </c>
+      <c r="E66">
+        <v>2306930.456771851</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -1302,6 +1502,9 @@
       <c r="D67">
         <v>0.0003557264016080808</v>
       </c>
+      <c r="E67">
+        <v>2300895.428710938</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -1316,6 +1519,9 @@
       <c r="D68">
         <v>0.0003876299106195802</v>
       </c>
+      <c r="E68">
+        <v>2294947.747261047</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -1330,6 +1536,9 @@
       <c r="D69">
         <v>0.0004205046398055856</v>
       </c>
+      <c r="E69">
+        <v>2289087.412399292</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -1344,6 +1553,9 @@
       <c r="D70">
         <v>0.0004543505891660971</v>
       </c>
+      <c r="E70">
+        <v>2283314.42414093</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -1358,6 +1570,9 @@
       <c r="D71">
         <v>0.0004891677587011145</v>
       </c>
+      <c r="E71">
+        <v>2277628.782470703</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -1372,6 +1587,9 @@
       <c r="D72">
         <v>0.000524956148410638</v>
       </c>
+      <c r="E72">
+        <v>2272030.487411499</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -1386,6 +1604,9 @@
       <c r="D73">
         <v>0.0005617157582946675</v>
       </c>
+      <c r="E73">
+        <v>2266519.53894043</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -1400,6 +1621,9 @@
       <c r="D74">
         <v>0.0005994465882395161</v>
       </c>
+      <c r="E74">
+        <v>2261095.937072754</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -1414,6 +1638,9 @@
       <c r="D75">
         <v>0.0006381486384725576</v>
       </c>
+      <c r="E75">
+        <v>2255759.681800842</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -1428,6 +1655,9 @@
       <c r="D76">
         <v>0.0006778219088801052</v>
       </c>
+      <c r="E76">
+        <v>2250510.773117065</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -1442,6 +1672,9 @@
       <c r="D77">
         <v>0.0007184663992347851</v>
       </c>
+      <c r="E77">
+        <v>2245349.211044312</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -1456,6 +1689,9 @@
       <c r="D78">
         <v>0.0007600821099913446</v>
       </c>
+      <c r="E78">
+        <v>2240274.995567322</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -1470,6 +1706,9 @@
       <c r="D79">
         <v>0.0008026690409224102</v>
       </c>
+      <c r="E79">
+        <v>2235288.126686096</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -1484,6 +1723,9 @@
       <c r="D80">
         <v>0.000846227191914295</v>
       </c>
+      <c r="E80">
+        <v>2230388.604400635</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -1498,6 +1740,9 @@
       <c r="D81">
         <v>0.0008907565630806857</v>
       </c>
+      <c r="E81">
+        <v>2225576.428710938</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -1512,6 +1757,9 @@
       <c r="D82">
         <v>0.0009362571544215825</v>
       </c>
+      <c r="E82">
+        <v>2220851.599632263</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -1526,6 +1774,9 @@
       <c r="D83">
         <v>0.0009827289659369853</v>
       </c>
+      <c r="E83">
+        <v>2216214.117141724</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -1540,6 +1791,9 @@
       <c r="D84">
         <v>0.001030171997513207</v>
       </c>
+      <c r="E84">
+        <v>2211663.981246948</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -1554,6 +1808,9 @@
       <c r="D85">
         <v>0.001078586249377622</v>
       </c>
+      <c r="E85">
+        <v>2207201.191955566</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -1568,6 +1825,9 @@
       <c r="D86">
         <v>0.00112797172153023</v>
       </c>
+      <c r="E86">
+        <v>2202825.749259949</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -1582,6 +1842,9 @@
       <c r="D87">
         <v>0.001178328413743657</v>
       </c>
+      <c r="E87">
+        <v>2198537.653167725</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -1596,6 +1859,9 @@
       <c r="D88">
         <v>0.001229656326017903</v>
       </c>
+      <c r="E88">
+        <v>2194336.903656006</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -1610,6 +1876,9 @@
       <c r="D89">
         <v>0.001281955458466655</v>
       </c>
+      <c r="E89">
+        <v>2190223.50075531</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -1624,6 +1893,9 @@
       <c r="D90">
         <v>0.0013352258112036</v>
       </c>
+      <c r="E90">
+        <v>2186197.444442749</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -1638,6 +1910,9 @@
       <c r="D91">
         <v>0.001389467384001364</v>
       </c>
+      <c r="E91">
+        <v>2182258.734741211</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -1652,6 +1927,9 @@
       <c r="D92">
         <v>0.001444680177087321</v>
       </c>
+      <c r="E92">
+        <v>2178407.371627808</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -1666,6 +1944,9 @@
       <c r="D93">
         <v>0.001500864190234097</v>
       </c>
+      <c r="E93">
+        <v>2174643.355125427</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -1680,6 +1961,9 @@
       <c r="D94">
         <v>0.001558019423555379</v>
       </c>
+      <c r="E94">
+        <v>2170966.685211182</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -1694,6 +1978,9 @@
       <c r="D95">
         <v>0.001616145877051167</v>
       </c>
+      <c r="E95">
+        <v>2167377.3618927</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -1708,6 +1995,9 @@
       <c r="D96">
         <v>0.001675243550721461</v>
       </c>
+      <c r="E96">
+        <v>2163875.385177612</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -1722,6 +2012,9 @@
       <c r="D97">
         <v>0.001735312444566262</v>
       </c>
+      <c r="E97">
+        <v>2160460.755058289</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -1736,6 +2029,9 @@
       <c r="D98">
         <v>0.001796352558699255</v>
       </c>
+      <c r="E98">
+        <v>2157133.471534729</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -1750,6 +2046,9 @@
       <c r="D99">
         <v>0.00185836389277938</v>
       </c>
+      <c r="E99">
+        <v>2153893.534606934</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -1764,6 +2063,9 @@
       <c r="D100">
         <v>0.001921346447147698</v>
       </c>
+      <c r="E100">
+        <v>2150740.944282532</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -1778,6 +2080,9 @@
       <c r="D101">
         <v>0.001985300221690522</v>
       </c>
+      <c r="E101">
+        <v>2147675.700553894</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -1792,6 +2097,9 @@
       <c r="D102">
         <v>0.002050225216294166</v>
       </c>
+      <c r="E102">
+        <v>2144697.803421021</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -1806,6 +2114,9 @@
       <c r="D103">
         <v>0.002116121431186002</v>
       </c>
+      <c r="E103">
+        <v>2141807.252891541</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -1820,6 +2131,9 @@
       <c r="D104">
         <v>0.002182988866252344</v>
       </c>
+      <c r="E104">
+        <v>2139004.048957825</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -1834,6 +2148,9 @@
       <c r="D105">
         <v>0.002250827521493193</v>
       </c>
+      <c r="E105">
+        <v>2136288.191619873</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -1848,6 +2165,9 @@
       <c r="D106">
         <v>0.002319637396908547</v>
       </c>
+      <c r="E106">
+        <v>2133659.680877686</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -1862,6 +2182,9 @@
       <c r="D107">
         <v>0.002389418492271034</v>
       </c>
+      <c r="E107">
+        <v>2131118.516738892</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -1876,6 +2199,9 @@
       <c r="D108">
         <v>0.0024601708080354</v>
       </c>
+      <c r="E108">
+        <v>2128664.699195862</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -1890,6 +2216,9 @@
       <c r="D109">
         <v>0.002531894343860586</v>
       </c>
+      <c r="E109">
+        <v>2126298.228248596</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -1904,6 +2233,9 @@
       <c r="D110">
         <v>0.00260458909974659</v>
       </c>
+      <c r="E110">
+        <v>2124019.103904724</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -1918,6 +2250,9 @@
       <c r="D111">
         <v>0.002678255076034475</v>
       </c>
+      <c r="E111">
+        <v>2121827.326148987</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -1932,6 +2267,9 @@
       <c r="D112">
         <v>0.002752892272383178</v>
       </c>
+      <c r="E112">
+        <v>2119722.894996643</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -1946,6 +2284,9 @@
       <c r="D113">
         <v>0.002828500689020075</v>
       </c>
+      <c r="E113">
+        <v>2117705.810447693</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -1960,6 +2301,9 @@
       <c r="D114">
         <v>0.002905080325604104</v>
       </c>
+      <c r="E114">
+        <v>2115776.072494507</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -1974,6 +2318,9 @@
       <c r="D115">
         <v>0.002982631182476325</v>
       </c>
+      <c r="E115">
+        <v>2113933.681129456</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -1988,6 +2335,9 @@
       <c r="D116">
         <v>0.003061153259409366</v>
       </c>
+      <c r="E116">
+        <v>2112178.636367798</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -2002,6 +2352,9 @@
       <c r="D117">
         <v>0.003140646556516913</v>
       </c>
+      <c r="E117">
+        <v>2110510.938209534</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -2016,6 +2369,9 @@
       <c r="D118">
         <v>0.003221111073912653</v>
       </c>
+      <c r="E118">
+        <v>2108930.586647034</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -2030,6 +2386,9 @@
       <c r="D119">
         <v>0.003302546811482898</v>
       </c>
+      <c r="E119">
+        <v>2107437.581672668</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120">
@@ -2044,6 +2403,9 @@
       <c r="D120">
         <v>0.003384953769113963</v>
       </c>
+      <c r="E120">
+        <v>2106031.923301697</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121">
@@ -2058,6 +2420,9 @@
       <c r="D121">
         <v>0.003468331947033221</v>
       </c>
+      <c r="E121">
+        <v>2104713.611534119</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122">
@@ -2072,6 +2437,9 @@
       <c r="D122">
         <v>0.003552681345013298</v>
       </c>
+      <c r="E122">
+        <v>2103482.646362305</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123">
@@ -2086,6 +2454,9 @@
       <c r="D123">
         <v>0.003638001963281567</v>
       </c>
+      <c r="E123">
+        <v>2102339.027786255</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124">
@@ -2100,6 +2471,9 @@
       <c r="D124">
         <v>0.003724293801610656</v>
       </c>
+      <c r="E124">
+        <v>2101282.755805969</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125">
@@ -2114,6 +2488,9 @@
       <c r="D125">
         <v>0.003811556860000564</v>
       </c>
+      <c r="E125">
+        <v>2100313.830421448</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126">
@@ -2128,6 +2505,9 @@
       <c r="D126">
         <v>0.003899791138792352</v>
       </c>
+      <c r="E126">
+        <v>2099432.25164032</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127">
@@ -2142,6 +2522,9 @@
       <c r="D127">
         <v>0.003988996637644959</v>
       </c>
+      <c r="E127">
+        <v>2098638.019462585</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128">
@@ -2156,6 +2539,9 @@
       <c r="D128">
         <v>0.004079173356672072</v>
       </c>
+      <c r="E128">
+        <v>2097931.133872986</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129">
@@ -2170,6 +2556,9 @@
       <c r="D129">
         <v>0.004170321295760004</v>
       </c>
+      <c r="E129">
+        <v>2097311.59487915</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130">
@@ -2184,6 +2573,9 @@
       <c r="D130">
         <v>0.004262440455249816</v>
       </c>
+      <c r="E130">
+        <v>2096779.402488708</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131">
@@ -2198,6 +2590,9 @@
       <c r="D131">
         <v>0.00435553083468676</v>
       </c>
+      <c r="E131">
+        <v>2096334.55670166</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132">
@@ -2212,6 +2607,9 @@
       <c r="D132">
         <v>0.004449592434298211</v>
       </c>
+      <c r="E132">
+        <v>2095977.057502747</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133">
@@ -2226,6 +2624,9 @@
       <c r="D133">
         <v>0.004544625254197854</v>
       </c>
+      <c r="E133">
+        <v>2095706.904907227</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134">
@@ -2240,6 +2641,9 @@
       <c r="D134">
         <v>0.004640629294272003</v>
       </c>
+      <c r="E134">
+        <v>2095524.098907471</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135">
@@ -2254,6 +2658,9 @@
       <c r="D135">
         <v>0.004737604554406971</v>
       </c>
+      <c r="E135">
+        <v>2095428.639503479</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136">
@@ -2268,6 +2675,9 @@
       <c r="D136">
         <v>0.004835551034830132</v>
       </c>
+      <c r="E136">
+        <v>2095420.526702881</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137">
@@ -2282,6 +2692,9 @@
       <c r="D137">
         <v>0.004934468735314113</v>
       </c>
+      <c r="E137">
+        <v>2095499.760490417</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138">
@@ -2296,6 +2709,9 @@
       <c r="D138">
         <v>0.005034357656086286</v>
       </c>
+      <c r="E138">
+        <v>2095666.340881348</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139">
@@ -2310,6 +2726,9 @@
       <c r="D139">
         <v>0.005135217796919278</v>
       </c>
+      <c r="E139">
+        <v>2095920.267883301</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140">
@@ -2324,6 +2743,9 @@
       <c r="D140">
         <v>0.00523704915781309</v>
       </c>
+      <c r="E140">
+        <v>2096261.54145813</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141">
@@ -2338,6 +2760,9 @@
       <c r="D141">
         <v>0.005339851739108781</v>
       </c>
+      <c r="E141">
+        <v>2096690.161651611</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142">
@@ -2352,6 +2777,9 @@
       <c r="D142">
         <v>0.005443625540351604</v>
       </c>
+      <c r="E142">
+        <v>2097206.128433228</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143">
@@ -2366,6 +2794,9 @@
       <c r="D143">
         <v>0.005548370561882621</v>
       </c>
+      <c r="E143">
+        <v>2097809.441810608</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144">
@@ -2380,6 +2811,9 @@
       <c r="D144">
         <v>0.005654086803588143</v>
       </c>
+      <c r="E144">
+        <v>2098500.101791382</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145">
@@ -2394,6 +2828,9 @@
       <c r="D145">
         <v>0.005760774265468172</v>
       </c>
+      <c r="E145">
+        <v>2099278.10836792</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146">
@@ -2408,6 +2845,9 @@
       <c r="D146">
         <v>0.005868432947522706</v>
       </c>
+      <c r="E146">
+        <v>2100143.461547852</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147">
@@ -2422,6 +2862,9 @@
       <c r="D147">
         <v>0.00597706284963806</v>
       </c>
+      <c r="E147">
+        <v>2101096.161315918</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148">
@@ -2436,6 +2879,9 @@
       <c r="D148">
         <v>0.006086663972041606</v>
       </c>
+      <c r="E148">
+        <v>2102136.207687378</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149">
@@ -2450,6 +2896,9 @@
       <c r="D149">
         <v>0.006197236314619659</v>
       </c>
+      <c r="E149">
+        <v>2103263.600646973</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150">
@@ -2464,6 +2913,9 @@
       <c r="D150">
         <v>0.006308779877144843</v>
       </c>
+      <c r="E150">
+        <v>2104478.34021759</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151">
@@ -2478,6 +2930,9 @@
       <c r="D151">
         <v>0.006421294659958221</v>
       </c>
+      <c r="E151">
+        <v>2105780.426376343</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152">
@@ -2492,6 +2947,9 @@
       <c r="D152">
         <v>0.006534780663173478</v>
       </c>
+      <c r="E152">
+        <v>2107169.859146118</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153">
@@ -2506,6 +2964,9 @@
       <c r="D153">
         <v>0.006649237886222181</v>
       </c>
+      <c r="E153">
+        <v>2108646.638496399</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154">
@@ -2520,6 +2981,9 @@
       <c r="D154">
         <v>0.006764666329559077</v>
       </c>
+      <c r="E154">
+        <v>2110210.764457703</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155">
@@ -2534,6 +2998,9 @@
       <c r="D155">
         <v>0.006881065993184166</v>
       </c>
+      <c r="E155">
+        <v>2111862.237014771</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156">
@@ -2548,6 +3015,9 @@
       <c r="D156">
         <v>0.006998436876870073</v>
       </c>
+      <c r="E156">
+        <v>2113601.056167603</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157">
@@ -2561,6 +3031,9 @@
       </c>
       <c r="D157">
         <v>0.007116778980730487</v>
+      </c>
+      <c r="E157">
+        <v>2115427.221923828</v>
       </c>
     </row>
   </sheetData>

--- a/data/sharemnth.xlsx
+++ b/data/sharemnth.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E157"/>
+  <dimension ref="A1:F157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -383,6 +383,11 @@
           <t>reg.hat</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ev.hat</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -400,6 +405,9 @@
       <c r="E2">
         <v>2874853.175834656</v>
       </c>
+      <c r="F2">
+        <v>655.4065935611725</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -417,6 +425,9 @@
       <c r="E3">
         <v>2863227.965507507</v>
       </c>
+      <c r="F3">
+        <v>599.0000765323639</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -434,6 +445,9 @@
       <c r="E4">
         <v>2851690.101799011</v>
       </c>
+      <c r="F4">
+        <v>544.4869854450226</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -451,6 +465,9 @@
       <c r="E5">
         <v>2840239.584671021</v>
       </c>
+      <c r="F5">
+        <v>491.8673205375671</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -468,6 +485,9 @@
       <c r="E6">
         <v>2828876.414154053</v>
       </c>
+      <c r="F6">
+        <v>441.1410813331604</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -485,6 +505,9 @@
       <c r="E7">
         <v>2817600.59022522</v>
       </c>
+      <c r="F7">
+        <v>392.3082683086395</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -502,6 +525,9 @@
       <c r="E8">
         <v>2806412.112892151</v>
       </c>
+      <c r="F8">
+        <v>345.3688812255859</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -519,6 +545,9 @@
       <c r="E9">
         <v>2795310.982170105</v>
       </c>
+      <c r="F9">
+        <v>300.3229203224182</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -536,6 +565,9 @@
       <c r="E10">
         <v>2784297.198028564</v>
       </c>
+      <c r="F10">
+        <v>257.1703853607178</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -553,6 +585,9 @@
       <c r="E11">
         <v>2773370.760498047</v>
       </c>
+      <c r="F11">
+        <v>215.9112763404846</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -570,6 +605,9 @@
       <c r="E12">
         <v>2762531.669555664</v>
       </c>
+      <c r="F12">
+        <v>176.5455932617188</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -587,6 +625,9 @@
       <c r="E13">
         <v>2751779.925224304</v>
       </c>
+      <c r="F13">
+        <v>139.0733363628387</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -604,6 +645,9 @@
       <c r="E14">
         <v>2741115.527481079</v>
       </c>
+      <c r="F14">
+        <v>103.4945056438446</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -621,6 +665,9 @@
       <c r="E15">
         <v>2730538.476333618</v>
       </c>
+      <c r="F15">
+        <v>69.80910062789917</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -638,6 +685,9 @@
       <c r="E16">
         <v>2720048.771789551</v>
       </c>
+      <c r="F16">
+        <v>38.0171217918396</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -655,6 +705,9 @@
       <c r="E17">
         <v>2709646.413841248</v>
       </c>
+      <c r="F17">
+        <v>8.118568897247314</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -672,6 +725,9 @@
       <c r="E18">
         <v>2699331.402496338</v>
       </c>
+      <c r="F18">
+        <v>-19.88655781745911</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -689,6 +745,9 @@
       <c r="E19">
         <v>2689103.737747192</v>
       </c>
+      <c r="F19">
+        <v>-45.99825835227966</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -706,6 +765,9 @@
       <c r="E20">
         <v>2678963.419586182</v>
       </c>
+      <c r="F20">
+        <v>-70.21653342247009</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -723,6 +785,9 @@
       <c r="E21">
         <v>2668910.448036194</v>
       </c>
+      <c r="F21">
+        <v>-92.54138231277466</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -740,6 +805,9 @@
       <c r="E22">
         <v>2658944.823066711</v>
       </c>
+      <c r="F22">
+        <v>-112.9728050231934</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -757,6 +825,9 @@
       <c r="E23">
         <v>2649066.544715881</v>
       </c>
+      <c r="F23">
+        <v>-131.5108015537262</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -774,6 +845,9 @@
       <c r="E24">
         <v>2639275.612945557</v>
       </c>
+      <c r="F24">
+        <v>-148.1553723812103</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -791,6 +865,9 @@
       <c r="E25">
         <v>2629572.027786255</v>
       </c>
+      <c r="F25">
+        <v>-162.9065170288086</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -808,6 +885,9 @@
       <c r="E26">
         <v>2619955.789215088</v>
       </c>
+      <c r="F26">
+        <v>-175.7642357349396</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -825,6 +905,9 @@
       <c r="E27">
         <v>2610426.897247314</v>
       </c>
+      <c r="F27">
+        <v>-186.7285282611847</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -842,6 +925,9 @@
       <c r="E28">
         <v>2600985.351875305</v>
       </c>
+      <c r="F28">
+        <v>-195.7993948459625</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -859,6 +945,9 @@
       <c r="E29">
         <v>2591631.15309906</v>
       </c>
+      <c r="F29">
+        <v>-202.9768354892731</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -876,6 +965,9 @@
       <c r="E30">
         <v>2582364.300933838</v>
       </c>
+      <c r="F30">
+        <v>-208.2608501911163</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -893,6 +985,9 @@
       <c r="E31">
         <v>2573184.795341492</v>
       </c>
+      <c r="F31">
+        <v>-211.6514389514923</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -910,6 +1005,9 @@
       <c r="E32">
         <v>2564092.636367798</v>
       </c>
+      <c r="F32">
+        <v>-213.1486012935638</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -927,6 +1025,9 @@
       <c r="E33">
         <v>2555087.823989868</v>
       </c>
+      <c r="F33">
+        <v>-212.7523379325867</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -944,6 +1045,9 @@
       <c r="E34">
         <v>2546170.358200073</v>
       </c>
+      <c r="F34">
+        <v>-210.4626483917236</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -961,6 +1065,9 @@
       <c r="E35">
         <v>2537340.239021301</v>
       </c>
+      <c r="F35">
+        <v>-206.2795329093933</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -978,6 +1085,9 @@
       <c r="E36">
         <v>2528597.466423035</v>
       </c>
+      <c r="F36">
+        <v>-200.2029912471771</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -995,6 +1105,9 @@
       <c r="E37">
         <v>2519942.04044342</v>
       </c>
+      <c r="F37">
+        <v>-192.2330238819122</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -1012,6 +1125,9 @@
       <c r="E38">
         <v>2511373.961044312</v>
       </c>
+      <c r="F38">
+        <v>-182.3696303367615</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -1029,6 +1145,9 @@
       <c r="E39">
         <v>2502893.228256226</v>
       </c>
+      <c r="F39">
+        <v>-170.6128108501434</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -1046,6 +1165,9 @@
       <c r="E40">
         <v>2494499.842056274</v>
       </c>
+      <c r="F40">
+        <v>-156.9625651836395</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -1063,6 +1185,9 @@
       <c r="E41">
         <v>2486193.802452087</v>
       </c>
+      <c r="F41">
+        <v>-141.4188935756683</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -1080,6 +1205,9 @@
       <c r="E42">
         <v>2477975.109458923</v>
       </c>
+      <c r="F42">
+        <v>-123.9817957878113</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -1097,6 +1225,9 @@
       <c r="E43">
         <v>2469843.763046265</v>
       </c>
+      <c r="F43">
+        <v>-104.6512722969055</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -1114,6 +1245,9 @@
       <c r="E44">
         <v>2461799.763244629</v>
       </c>
+      <c r="F44">
+        <v>-83.42732286453247</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -1131,6 +1265,9 @@
       <c r="E45">
         <v>2453843.110031128</v>
       </c>
+      <c r="F45">
+        <v>-60.3099467754364</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -1148,6 +1285,9 @@
       <c r="E46">
         <v>2445973.80342865</v>
       </c>
+      <c r="F46">
+        <v>-35.29914522171021</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -1165,6 +1305,9 @@
       <c r="E47">
         <v>2438191.843414307</v>
       </c>
+      <c r="F47">
+        <v>-8.394917726516724</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -1182,6 +1325,9 @@
       <c r="E48">
         <v>2430497.229995728</v>
       </c>
+      <c r="F48">
+        <v>20.4027361869812</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -1199,6 +1345,9 @@
       <c r="E49">
         <v>2422889.963180542</v>
       </c>
+      <c r="F49">
+        <v>51.09381580352783</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -1216,6 +1365,9 @@
       <c r="E50">
         <v>2415370.042961121</v>
       </c>
+      <c r="F50">
+        <v>83.67832183837891</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -1233,6 +1385,9 @@
       <c r="E51">
         <v>2407937.469345093</v>
       </c>
+      <c r="F51">
+        <v>118.1562533378601</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -1250,6 +1405,9 @@
       <c r="E52">
         <v>2400592.242324829</v>
       </c>
+      <c r="F52">
+        <v>154.5276112556458</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -1267,6 +1425,9 @@
       <c r="E53">
         <v>2393334.3618927</v>
       </c>
+      <c r="F53">
+        <v>192.7923953533173</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -1284,6 +1445,9 @@
       <c r="E54">
         <v>2386163.828071594</v>
       </c>
+      <c r="F54">
+        <v>232.9506051540375</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -1301,6 +1465,9 @@
       <c r="E55">
         <v>2379080.640838623</v>
       </c>
+      <c r="F55">
+        <v>275.002240896225</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -1318,6 +1485,9 @@
       <c r="E56">
         <v>2372084.800209045</v>
       </c>
+      <c r="F56">
+        <v>318.9473025798798</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -1335,6 +1505,9 @@
       <c r="E57">
         <v>2365176.306167603</v>
       </c>
+      <c r="F57">
+        <v>364.785790681839</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -1352,6 +1525,9 @@
       <c r="E58">
         <v>2358355.158737183</v>
       </c>
+      <c r="F58">
+        <v>412.5177042484283</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -1369,6 +1545,9 @@
       <c r="E59">
         <v>2351621.357894897</v>
       </c>
+      <c r="F59">
+        <v>462.1430444717407</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -1386,6 +1565,9 @@
       <c r="E60">
         <v>2344974.903663635</v>
       </c>
+      <c r="F60">
+        <v>513.6618103981018</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -1403,6 +1585,9 @@
       <c r="E61">
         <v>2338415.796012878</v>
       </c>
+      <c r="F61">
+        <v>567.0740022659302</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -1420,6 +1605,9 @@
       <c r="E62">
         <v>2331944.034965515</v>
       </c>
+      <c r="F62">
+        <v>622.3796203136444</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -1437,6 +1625,9 @@
       <c r="E63">
         <v>2325559.620529175</v>
       </c>
+      <c r="F63">
+        <v>679.5786645412445</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -1454,6 +1645,9 @@
       <c r="E64">
         <v>2319262.55267334</v>
       </c>
+      <c r="F64">
+        <v>738.6711344718933</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -1471,6 +1665,9 @@
       <c r="E65">
         <v>2313052.831420898</v>
       </c>
+      <c r="F65">
+        <v>799.6570303440094</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -1488,6 +1685,9 @@
       <c r="E66">
         <v>2306930.456771851</v>
       </c>
+      <c r="F66">
+        <v>862.5363526344299</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -1505,6 +1705,9 @@
       <c r="E67">
         <v>2300895.428710938</v>
       </c>
+      <c r="F67">
+        <v>927.3091006278992</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -1522,6 +1725,9 @@
       <c r="E68">
         <v>2294947.747261047</v>
       </c>
+      <c r="F68">
+        <v>993.9752745628357</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -1539,6 +1745,9 @@
       <c r="E69">
         <v>2289087.412399292</v>
       </c>
+      <c r="F69">
+        <v>1062.534874916077</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -1556,6 +1765,9 @@
       <c r="E70">
         <v>2283314.42414093</v>
       </c>
+      <c r="F70">
+        <v>1132.987900972366</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -1573,6 +1785,9 @@
       <c r="E71">
         <v>2277628.782470703</v>
       </c>
+      <c r="F71">
+        <v>1205.334353208542</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -1590,6 +1805,9 @@
       <c r="E72">
         <v>2272030.487411499</v>
       </c>
+      <c r="F72">
+        <v>1279.574231386185</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -1607,6 +1825,9 @@
       <c r="E73">
         <v>2266519.53894043</v>
       </c>
+      <c r="F73">
+        <v>1355.707535505295</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -1624,6 +1845,9 @@
       <c r="E74">
         <v>2261095.937072754</v>
       </c>
+      <c r="F74">
+        <v>1433.734265565872</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -1641,6 +1865,9 @@
       <c r="E75">
         <v>2255759.681800842</v>
       </c>
+      <c r="F75">
+        <v>1513.654422044754</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -1658,6 +1885,9 @@
       <c r="E76">
         <v>2250510.773117065</v>
       </c>
+      <c r="F76">
+        <v>1595.468004226685</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -1675,6 +1905,9 @@
       <c r="E77">
         <v>2245349.211044312</v>
       </c>
+      <c r="F77">
+        <v>1679.175012588501</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -1692,6 +1925,9 @@
       <c r="E78">
         <v>2240274.995567322</v>
       </c>
+      <c r="F78">
+        <v>1764.775446653366</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -1709,6 +1945,9 @@
       <c r="E79">
         <v>2235288.126686096</v>
       </c>
+      <c r="F79">
+        <v>1852.269307136536</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -1726,6 +1965,9 @@
       <c r="E80">
         <v>2230388.604400635</v>
       </c>
+      <c r="F80">
+        <v>1941.656593561172</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -1743,6 +1985,9 @@
       <c r="E81">
         <v>2225576.428710938</v>
       </c>
+      <c r="F81">
+        <v>2032.937305688858</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -1760,6 +2005,9 @@
       <c r="E82">
         <v>2220851.599632263</v>
       </c>
+      <c r="F82">
+        <v>2126.111444234848</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -1777,6 +2025,9 @@
       <c r="E83">
         <v>2216214.117141724</v>
       </c>
+      <c r="F83">
+        <v>2221.179008245468</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -1794,6 +2045,9 @@
       <c r="E84">
         <v>2211663.981246948</v>
       </c>
+      <c r="F84">
+        <v>2318.139998912811</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -1811,6 +2065,9 @@
       <c r="E85">
         <v>2207201.191955566</v>
       </c>
+      <c r="F85">
+        <v>2416.994415283203</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -1828,6 +2085,9 @@
       <c r="E86">
         <v>2202825.749259949</v>
       </c>
+      <c r="F86">
+        <v>2517.742257595062</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -1845,6 +2105,9 @@
       <c r="E87">
         <v>2198537.653167725</v>
       </c>
+      <c r="F87">
+        <v>2620.383526086807</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -1862,6 +2125,9 @@
       <c r="E88">
         <v>2194336.903656006</v>
       </c>
+      <c r="F88">
+        <v>2724.91822052002</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -1879,6 +2145,9 @@
       <c r="E89">
         <v>2190223.50075531</v>
       </c>
+      <c r="F89">
+        <v>2831.346341371536</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -1896,6 +2165,9 @@
       <c r="E90">
         <v>2186197.444442749</v>
       </c>
+      <c r="F90">
+        <v>2939.667887687683</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -1913,6 +2185,9 @@
       <c r="E91">
         <v>2182258.734741211</v>
       </c>
+      <c r="F91">
+        <v>3049.882860183716</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -1930,6 +2205,9 @@
       <c r="E92">
         <v>2178407.371627808</v>
       </c>
+      <c r="F92">
+        <v>3161.991258621216</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -1947,6 +2225,9 @@
       <c r="E93">
         <v>2174643.355125427</v>
       </c>
+      <c r="F93">
+        <v>3275.99308347702</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -1964,6 +2245,9 @@
       <c r="E94">
         <v>2170966.685211182</v>
       </c>
+      <c r="F94">
+        <v>3391.888333797455</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -1981,6 +2265,9 @@
       <c r="E95">
         <v>2167377.3618927</v>
       </c>
+      <c r="F95">
+        <v>3509.677010536194</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -1998,6 +2285,9 @@
       <c r="E96">
         <v>2163875.385177612</v>
       </c>
+      <c r="F96">
+        <v>3629.359112977982</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -2015,6 +2305,9 @@
       <c r="E97">
         <v>2160460.755058289</v>
       </c>
+      <c r="F97">
+        <v>3750.934641599655</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -2032,6 +2325,9 @@
       <c r="E98">
         <v>2157133.471534729</v>
       </c>
+      <c r="F98">
+        <v>3874.403596401215</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -2049,6 +2345,9 @@
       <c r="E99">
         <v>2153893.534606934</v>
       </c>
+      <c r="F99">
+        <v>3999.765977144241</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -2066,6 +2365,9 @@
       <c r="E100">
         <v>2150740.944282532</v>
       </c>
+      <c r="F100">
+        <v>4127.021783828735</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -2083,6 +2385,9 @@
       <c r="E101">
         <v>2147675.700553894</v>
       </c>
+      <c r="F101">
+        <v>4256.171016454697</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -2100,6 +2405,9 @@
       <c r="E102">
         <v>2144697.803421021</v>
       </c>
+      <c r="F102">
+        <v>4387.213675260544</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -2117,6 +2425,9 @@
       <c r="E103">
         <v>2141807.252891541</v>
       </c>
+      <c r="F103">
+        <v>4520.149760007858</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -2134,6 +2445,9 @@
       <c r="E104">
         <v>2139004.048957825</v>
       </c>
+      <c r="F104">
+        <v>4654.97927069664</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -2151,6 +2465,9 @@
       <c r="E105">
         <v>2136288.191619873</v>
       </c>
+      <c r="F105">
+        <v>4791.702207803726</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -2168,6 +2485,9 @@
       <c r="E106">
         <v>2133659.680877686</v>
       </c>
+      <c r="F106">
+        <v>4930.318570137024</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -2185,6 +2505,9 @@
       <c r="E107">
         <v>2131118.516738892</v>
       </c>
+      <c r="F107">
+        <v>5070.828359127045</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -2202,6 +2525,9 @@
       <c r="E108">
         <v>2128664.699195862</v>
       </c>
+      <c r="F108">
+        <v>5213.231573820114</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -2219,6 +2545,9 @@
       <c r="E109">
         <v>2126298.228248596</v>
       </c>
+      <c r="F109">
+        <v>5357.528214693069</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -2236,6 +2565,9 @@
       <c r="E110">
         <v>2124019.103904724</v>
       </c>
+      <c r="F110">
+        <v>5503.718281745911</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -2253,6 +2585,9 @@
       <c r="E111">
         <v>2121827.326148987</v>
       </c>
+      <c r="F111">
+        <v>5651.801774501801</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -2270,6 +2605,9 @@
       <c r="E112">
         <v>2119722.894996643</v>
       </c>
+      <c r="F112">
+        <v>5801.778693675995</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -2287,6 +2625,9 @@
       <c r="E113">
         <v>2117705.810447693</v>
       </c>
+      <c r="F113">
+        <v>5953.649038314819</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -2304,6 +2645,9 @@
       <c r="E114">
         <v>2115776.072494507</v>
       </c>
+      <c r="F114">
+        <v>6107.412809610367</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -2321,6 +2665,9 @@
       <c r="E115">
         <v>2113933.681129456</v>
       </c>
+      <c r="F115">
+        <v>6263.070006370544</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -2338,6 +2685,9 @@
       <c r="E116">
         <v>2112178.636367798</v>
       </c>
+      <c r="F116">
+        <v>6420.620629549026</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -2355,6 +2705,9 @@
       <c r="E117">
         <v>2110510.938209534</v>
       </c>
+      <c r="F117">
+        <v>6580.064678430557</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -2372,6 +2725,9 @@
       <c r="E118">
         <v>2108930.586647034</v>
       </c>
+      <c r="F118">
+        <v>6741.402153253555</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -2389,6 +2745,9 @@
       <c r="E119">
         <v>2107437.581672668</v>
       </c>
+      <c r="F119">
+        <v>6904.633054494858</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120">
@@ -2406,6 +2765,9 @@
       <c r="E120">
         <v>2106031.923301697</v>
       </c>
+      <c r="F120">
+        <v>7069.757381439209</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121">
@@ -2423,6 +2785,9 @@
       <c r="E121">
         <v>2104713.611534119</v>
       </c>
+      <c r="F121">
+        <v>7236.775134563446</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122">
@@ -2440,6 +2805,9 @@
       <c r="E122">
         <v>2103482.646362305</v>
       </c>
+      <c r="F122">
+        <v>7405.68631362915</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123">
@@ -2457,6 +2825,9 @@
       <c r="E123">
         <v>2102339.027786255</v>
       </c>
+      <c r="F123">
+        <v>7576.490918874741</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124">
@@ -2474,6 +2845,9 @@
       <c r="E124">
         <v>2101282.755805969</v>
       </c>
+      <c r="F124">
+        <v>7749.188950061798</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125">
@@ -2491,6 +2865,9 @@
       <c r="E125">
         <v>2100313.830421448</v>
       </c>
+      <c r="F125">
+        <v>7923.780407190323</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126">
@@ -2508,6 +2885,9 @@
       <c r="E126">
         <v>2099432.25164032</v>
       </c>
+      <c r="F126">
+        <v>8100.265290260315</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127">
@@ -2525,6 +2905,9 @@
       <c r="E127">
         <v>2098638.019462585</v>
       </c>
+      <c r="F127">
+        <v>8278.643599271774</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128">
@@ -2542,6 +2925,9 @@
       <c r="E128">
         <v>2097931.133872986</v>
       </c>
+      <c r="F128">
+        <v>8458.915334701538</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129">
@@ -2559,6 +2945,9 @@
       <c r="E129">
         <v>2097311.59487915</v>
       </c>
+      <c r="F129">
+        <v>8641.080495834351</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130">
@@ -2576,6 +2965,9 @@
       <c r="E130">
         <v>2096779.402488708</v>
       </c>
+      <c r="F130">
+        <v>8825.139083147049</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131">
@@ -2593,6 +2985,9 @@
       <c r="E131">
         <v>2096334.55670166</v>
       </c>
+      <c r="F131">
+        <v>9011.091096401215</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132">
@@ -2610,6 +3005,9 @@
       <c r="E132">
         <v>2095977.057502747</v>
       </c>
+      <c r="F132">
+        <v>9198.936535835266</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133">
@@ -2627,6 +3025,9 @@
       <c r="E133">
         <v>2095706.904907227</v>
       </c>
+      <c r="F133">
+        <v>9388.675400972366</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134">
@@ -2644,6 +3045,9 @@
       <c r="E134">
         <v>2095524.098907471</v>
       </c>
+      <c r="F134">
+        <v>9580.307692289352</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135">
@@ -2661,6 +3065,9 @@
       <c r="E135">
         <v>2095428.639503479</v>
       </c>
+      <c r="F135">
+        <v>9773.833409547806</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136">
@@ -2678,6 +3085,9 @@
       <c r="E136">
         <v>2095420.526702881</v>
       </c>
+      <c r="F136">
+        <v>9969.252552986145</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137">
@@ -2695,6 +3105,9 @@
       <c r="E137">
         <v>2095499.760490417</v>
       </c>
+      <c r="F137">
+        <v>10166.56512260437</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138">
@@ -2712,6 +3125,9 @@
       <c r="E138">
         <v>2095666.340881348</v>
       </c>
+      <c r="F138">
+        <v>10365.77111768723</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139">
@@ -2729,6 +3145,9 @@
       <c r="E139">
         <v>2095920.267883301</v>
       </c>
+      <c r="F139">
+        <v>10566.87053918839</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140">
@@ -2746,6 +3165,9 @@
       <c r="E140">
         <v>2096261.54145813</v>
       </c>
+      <c r="F140">
+        <v>10769.86338663101</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141">
@@ -2763,6 +3185,9 @@
       <c r="E141">
         <v>2096690.161651611</v>
       </c>
+      <c r="F141">
+        <v>10974.74966025352</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142">
@@ -2780,6 +3205,9 @@
       <c r="E142">
         <v>2097206.128433228</v>
       </c>
+      <c r="F142">
+        <v>11181.52935957909</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143">
@@ -2797,6 +3225,9 @@
       <c r="E143">
         <v>2097809.441810608</v>
       </c>
+      <c r="F143">
+        <v>11390.20248508453</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144">
@@ -2814,6 +3245,9 @@
       <c r="E144">
         <v>2098500.101791382</v>
       </c>
+      <c r="F144">
+        <v>11600.76903653145</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145">
@@ -2831,6 +3265,9 @@
       <c r="E145">
         <v>2099278.10836792</v>
       </c>
+      <c r="F145">
+        <v>11813.22901415825</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146">
@@ -2848,6 +3285,9 @@
       <c r="E146">
         <v>2100143.461547852</v>
       </c>
+      <c r="F146">
+        <v>12027.58241772652</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147">
@@ -2865,6 +3305,9 @@
       <c r="E147">
         <v>2101096.161315918</v>
       </c>
+      <c r="F147">
+        <v>12243.82924699783</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148">
@@ -2882,6 +3325,9 @@
       <c r="E148">
         <v>2102136.207687378</v>
       </c>
+      <c r="F148">
+        <v>12461.96950292587</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149">
@@ -2899,6 +3345,9 @@
       <c r="E149">
         <v>2103263.600646973</v>
       </c>
+      <c r="F149">
+        <v>12682.00318431854</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150">
@@ -2916,6 +3365,9 @@
       <c r="E150">
         <v>2104478.34021759</v>
       </c>
+      <c r="F150">
+        <v>12903.9302918911</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151">
@@ -2933,6 +3385,9 @@
       <c r="E151">
         <v>2105780.426376343</v>
       </c>
+      <c r="F151">
+        <v>13127.75082564354</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152">
@@ -2950,6 +3405,9 @@
       <c r="E152">
         <v>2107169.859146118</v>
       </c>
+      <c r="F152">
+        <v>13353.46478533745</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153">
@@ -2967,6 +3425,9 @@
       <c r="E153">
         <v>2108646.638496399</v>
       </c>
+      <c r="F153">
+        <v>13581.07217121124</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154">
@@ -2984,6 +3445,9 @@
       <c r="E154">
         <v>2110210.764457703</v>
       </c>
+      <c r="F154">
+        <v>13810.57298254967</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155">
@@ -3001,6 +3465,9 @@
       <c r="E155">
         <v>2111862.237014771</v>
       </c>
+      <c r="F155">
+        <v>14041.9672203064</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156">
@@ -3018,6 +3485,9 @@
       <c r="E156">
         <v>2113601.056167603</v>
       </c>
+      <c r="F156">
+        <v>14275.25488400459</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157">
@@ -3034,6 +3504,9 @@
       </c>
       <c r="E157">
         <v>2115427.221923828</v>
+      </c>
+      <c r="F157">
+        <v>14510.43597364426</v>
       </c>
     </row>
   </sheetData>
